--- a/import_purchase_order.xlsx
+++ b/import_purchase_order.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB1"/>
+  <dimension ref="A1:AA1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,12 +567,7 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Document</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Term</t>
+          <t>Terms and Conditions</t>
         </is>
       </c>
     </row>
